--- a/ABBV.xlsx
+++ b/ABBV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD41507-AF66-485F-91D1-BAD5D8D31807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D54721-791B-4EC6-BE36-5C7B7EA73DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="2870" windowWidth="18180" windowHeight="13630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17760" yWindow="6470" windowWidth="18180" windowHeight="13630" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -877,7 +877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC107E7E-DCF2-4579-A3AF-92A9AACC93CA}">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
